--- a/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 днрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 днрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\18,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD9077-34D3-4148-BE2C-55A4F10AC80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10144A4-F417-48A5-86E0-52D6CE5DA52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AB$72</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>Период: 11.01.2024 - 18.01.2024</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>устар.</t>
+  </si>
+  <si>
+    <t>метка</t>
+  </si>
+  <si>
+    <t>22,01,</t>
   </si>
 </sst>
 </file>
@@ -12330,11 +12336,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC63" sqref="AC63"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -12343,33 +12349,33 @@
     <col min="2" max="2" width="3.83203125" style="1" customWidth="1"/>
     <col min="3" max="6" width="7.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="2" customWidth="1"/>
-    <col min="9" max="12" width="7.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="1" style="2" customWidth="1"/>
-    <col min="14" max="16" width="7.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.5" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.5" style="2" customWidth="1"/>
-    <col min="20" max="22" width="8" style="2" customWidth="1"/>
-    <col min="23" max="23" width="29.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="23" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="24" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="10.5" style="2"/>
+    <col min="8" max="9" width="5.33203125" style="2" customWidth="1"/>
+    <col min="10" max="13" width="7.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="1" style="2" customWidth="1"/>
+    <col min="15" max="17" width="7.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.5" style="2" customWidth="1"/>
+    <col min="19" max="20" width="5.5" style="2" customWidth="1"/>
+    <col min="21" max="23" width="8" style="2" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="24" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -12388,39 +12394,39 @@
       <c r="H3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>83</v>
@@ -12429,20 +12435,23 @@
         <v>83</v>
       </c>
       <c r="W3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
@@ -12459,37 +12468,40 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="13"/>
       <c r="S4" s="13"/>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="13"/>
+      <c r="U4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="11"/>
@@ -12504,71 +12516,72 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="19">
-        <f t="shared" ref="I5:P5" si="0">SUM(I6:I191)</f>
+      <c r="I5" s="12"/>
+      <c r="J5" s="19">
+        <f t="shared" ref="J5:Q5" si="0">SUM(J6:J191)</f>
         <v>34277.4</v>
       </c>
-      <c r="J5" s="19">
+      <c r="K5" s="19">
         <f t="shared" si="0"/>
         <v>-241.6</v>
       </c>
-      <c r="K5" s="19">
+      <c r="L5" s="19">
         <f t="shared" si="0"/>
         <v>3672.2</v>
       </c>
-      <c r="L5" s="19">
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
         <v>30363.599999999999</v>
       </c>
-      <c r="M5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>734.44</v>
+        <v>0</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="0"/>
-        <v>3719.44</v>
+        <v>734.44</v>
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="13"/>
+        <v>3719.44</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="20"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="19">
-        <f>SUM(T6:T191)</f>
-        <v>714.62000000000012</v>
-      </c>
+      <c r="T5" s="13"/>
       <c r="U5" s="19">
         <f>SUM(U6:U191)</f>
-        <v>582.19999999999982</v>
+        <v>714.62000000000012</v>
       </c>
       <c r="V5" s="19">
         <f>SUM(V6:V191)</f>
+        <v>582.19999999999982</v>
+      </c>
+      <c r="W5" s="19">
+        <f>SUM(W6:W191)</f>
         <v>862.20000000000027</v>
       </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="19">
-        <f>SUM(X6:X191)</f>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="19">
+        <f>SUM(Y6:Y191)</f>
         <v>1898.816</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Z5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Z5" s="21">
-        <f>SUM(Z6:Z191)</f>
+      <c r="AA5" s="21">
+        <f>SUM(AA6:AA191)</f>
         <v>544</v>
       </c>
-      <c r="AA5" s="19">
-        <f>SUM(AA6:AA191)</f>
+      <c r="AB5" s="19">
+        <f>SUM(AB6:AB191)</f>
         <v>1870.5400000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -12591,65 +12604,65 @@
         <f>VLOOKUP(A6,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>VLOOKUP(A6,[3]TDSheet!$A:$E,4,0)</f>
         <v>552</v>
       </c>
-      <c r="J6" s="2">
-        <f>E6-I6</f>
-        <v>0</v>
-      </c>
       <c r="K6" s="2">
-        <f>E6-L6</f>
+        <f>E6-J6</f>
         <v>0</v>
       </c>
       <c r="L6" s="2">
+        <f>E6-M6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f>VLOOKUP(A6,[4]TDSheet!$A:$V,6,0)</f>
         <v>552</v>
       </c>
-      <c r="N6" s="2">
-        <f>K6/5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="2">
+        <f>L6/5</f>
+        <v>0</v>
+      </c>
       <c r="P6" s="25"/>
-      <c r="R6" s="2" t="e">
-        <f>(F6+O6)/N6</f>
+      <c r="Q6" s="25"/>
+      <c r="S6" s="2" t="e">
+        <f>(F6+P6)/O6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="2" t="e">
-        <f>F6/N6</f>
+      <c r="T6" s="2" t="e">
+        <f>F6/O6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="2">
-        <f t="shared" ref="X6:X37" si="1">O6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y37" si="1">P6*G6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <f>Z6*Y6*G6</f>
+      <c r="AA6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>AA6*Z6*G6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -12676,68 +12689,68 @@
         <f>VLOOKUP(A7,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>VLOOKUP(A7,[3]TDSheet!$A:$E,4,0)</f>
         <v>708</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J70" si="2">E7-I7</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K70" si="2">E7-J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K70" si="3">E7-L7</f>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L70" si="3">E7-M7</f>
         <v>97</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f>VLOOKUP(A7,[4]TDSheet!$A:$V,6,0)</f>
         <v>612</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" ref="N7:N70" si="4">K7/5</f>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O70" si="4">L7/5</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="O7" s="25">
-        <f>14*N7-F7</f>
+      <c r="P7" s="25">
+        <f>14*O7-F7</f>
         <v>147.59999999999997</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:R70" si="5">(F7+O7)/N7</f>
+      <c r="Q7" s="25"/>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7:S70" si="5">(F7+P7)/O7</f>
         <v>14</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7:S70" si="6">F7/N7</f>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7:T70" si="6">F7/O7</f>
         <v>6.391752577319588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$U,21,0)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$V,22,0)</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$N,14,0)</f>
         <v>14.6</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f t="shared" si="1"/>
         <v>44.279999999999987</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Z7" s="23">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="AA7" s="24">
         <v>12</v>
       </c>
-      <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AA70" si="7">Z7*Y7*G7</f>
+      <c r="AB7" s="2">
+        <f t="shared" ref="AB7:AB70" si="7">AA7*Z7*G7</f>
         <v>43.199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -12764,68 +12777,68 @@
         <f>VLOOKUP(A8,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>VLOOKUP(A8,[3]TDSheet!$A:$E,4,0)</f>
         <v>964</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f>VLOOKUP(A8,[4]TDSheet!$A:$V,6,0)</f>
         <v>852</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f t="shared" si="4"/>
         <v>22.2</v>
       </c>
-      <c r="O8" s="25">
-        <f>10*N8-F8</f>
+      <c r="P8" s="25">
+        <f>10*O8-F8</f>
         <v>189</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="R8" s="2">
+      <c r="Q8" s="25"/>
+      <c r="S8" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <f t="shared" si="6"/>
         <v>1.4864864864864866</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$U,21,0)</f>
         <v>13.6</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$V,22,0)</f>
         <v>21</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$N,14,0)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f t="shared" si="1"/>
         <v>56.699999999999996</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Z8" s="23">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="AA8" s="24">
         <v>15</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -12848,65 +12861,65 @@
         <f>VLOOKUP(A9,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f>VLOOKUP(A9,[3]TDSheet!$A:$E,4,0)</f>
         <v>936</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f>VLOOKUP(A9,[4]TDSheet!$A:$V,6,0)</f>
         <v>936</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="R9" s="2" t="e">
+      <c r="Q9" s="25"/>
+      <c r="S9" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="2" t="e">
+      <c r="T9" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Z9" s="23">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -12933,64 +12946,64 @@
         <f>VLOOKUP(A10,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f>VLOOKUP(A10,[3]TDSheet!$A:$E,4,0)</f>
         <v>201</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>-98</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="4"/>
         <v>20.6</v>
       </c>
-      <c r="O10" s="25">
-        <f>15*N10-F10</f>
+      <c r="P10" s="25">
+        <f>15*O10-F10</f>
         <v>141</v>
       </c>
-      <c r="P10" s="25"/>
-      <c r="R10" s="2">
+      <c r="Q10" s="25"/>
+      <c r="S10" s="2">
         <f t="shared" si="5"/>
         <v>14.999999999999998</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <f t="shared" si="6"/>
         <v>8.1553398058252426</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$U,21,0)</f>
         <v>21.6</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$V,22,0)</f>
         <v>20</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$N,14,0)</f>
         <v>23</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f t="shared" si="1"/>
         <v>42.3</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Z10" s="23">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="AA10" s="24">
         <v>11</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f t="shared" si="7"/>
         <v>39.6</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -13017,66 +13030,66 @@
         <f>VLOOKUP(A11,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f>VLOOKUP(A11,[3]TDSheet!$A:$E,4,0)</f>
         <v>1470</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f>VLOOKUP(A11,[4]TDSheet!$A:$V,6,0)</f>
         <v>1440</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
-      <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="R11" s="2">
+      <c r="Q11" s="25"/>
+      <c r="S11" s="2">
         <f t="shared" si="5"/>
         <v>23.548387096774192</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <f t="shared" si="6"/>
         <v>23.548387096774192</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$U,21,0)</f>
         <v>2.6</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$V,22,0)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$N,14,0)</f>
         <v>11.2</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Z11" s="23">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$Y,25,0)</f>
         <v>24</v>
       </c>
-      <c r="Z11" s="24">
-        <f t="shared" ref="Z7:Z70" si="8">O11/Y11</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="24">
+        <f t="shared" ref="AA11:AA61" si="8">P11/Z11</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -13099,65 +13112,65 @@
         <f>VLOOKUP(A12,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f>VLOOKUP(A12,[3]TDSheet!$A:$E,4,0)</f>
         <v>1130</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f>VLOOKUP(A12,[4]TDSheet!$A:$V,6,0)</f>
         <v>1130</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="25"/>
       <c r="P12" s="25"/>
-      <c r="R12" s="2" t="e">
+      <c r="Q12" s="25"/>
+      <c r="S12" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="2" t="e">
+      <c r="T12" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Z12" s="23">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -13182,62 +13195,62 @@
         <f>VLOOKUP(A13,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f>VLOOKUP(A13,[3]TDSheet!$A:$E,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="R13" s="2">
+      <c r="Q13" s="25"/>
+      <c r="S13" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.6</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$V,22,0)</f>
         <v>1</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Z13" s="23">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="AA13" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -13264,62 +13277,62 @@
         <f>VLOOKUP(A14,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f>VLOOKUP(A14,[3]TDSheet!$A:$E,4,0)</f>
         <v>3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="3"/>
         <v>3.7</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <f t="shared" si="4"/>
         <v>0.74</v>
       </c>
-      <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="R14" s="2">
+      <c r="Q14" s="25"/>
+      <c r="S14" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$U,21,0)</f>
         <v>2.2199999999999998</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.2333333333333334</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$N,14,0)</f>
         <v>2.96</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Z14" s="23">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3.7</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="AA14" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -13344,63 +13357,63 @@
         <f>VLOOKUP(A15,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f>VLOOKUP(A15,[3]TDSheet!$A:$E,4,0)</f>
         <v>7.4</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>3.6999999999999993</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <f t="shared" si="4"/>
         <v>2.2199999999999998</v>
       </c>
-      <c r="O15" s="25">
+      <c r="P15" s="25">
         <v>7</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="R15" s="2">
+      <c r="Q15" s="25"/>
+      <c r="S15" s="2">
         <f t="shared" si="5"/>
         <v>14.819819819819822</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <f t="shared" si="6"/>
         <v>11.666666666666668</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$U,21,0)</f>
         <v>2.96</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.2333333333333334</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$N,14,0)</f>
         <v>0.74</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Z15" s="23">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3.7</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="AA15" s="24">
         <v>2</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -13423,65 +13436,65 @@
         <f>VLOOKUP(A16,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f>VLOOKUP(A16,[3]TDSheet!$A:$E,4,0)</f>
         <v>255.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f>VLOOKUP(A16,[4]TDSheet!$A:$V,6,0)</f>
         <v>255.5</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="R16" s="2" t="e">
+      <c r="Q16" s="25"/>
+      <c r="S16" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="2" t="e">
+      <c r="T16" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Z16" s="23">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -13506,68 +13519,68 @@
         <f>VLOOKUP(A17,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f>VLOOKUP(A17,[3]TDSheet!$A:$E,4,0)</f>
         <v>1056</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <f>VLOOKUP(A17,[4]TDSheet!$A:$V,6,0)</f>
         <v>972</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <f t="shared" si="4"/>
         <v>16.8</v>
       </c>
-      <c r="O17" s="25">
-        <f t="shared" ref="O17:O19" si="9">14*N17-F17</f>
+      <c r="P17" s="25">
+        <f t="shared" ref="P17:P19" si="9">14*O17-F17</f>
         <v>91.200000000000017</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="R17" s="2">
+      <c r="Q17" s="25"/>
+      <c r="S17" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <f t="shared" si="6"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$U,21,0)</f>
         <v>12.4</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$V,22,0)</f>
         <v>25.666666666666668</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$N,14,0)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <f t="shared" si="1"/>
         <v>22.800000000000004</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Z17" s="23">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="AA17" s="24">
         <v>7</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -13594,68 +13607,68 @@
         <f>VLOOKUP(A18,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f>VLOOKUP(A18,[3]TDSheet!$A:$E,4,0)</f>
         <v>734</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <f>VLOOKUP(A18,[4]TDSheet!$A:$V,6,0)</f>
         <v>648</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <f t="shared" si="4"/>
         <v>14.8</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="25">
         <f t="shared" si="9"/>
         <v>123.20000000000002</v>
       </c>
-      <c r="P18" s="25"/>
-      <c r="R18" s="2">
+      <c r="Q18" s="25"/>
+      <c r="S18" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <f t="shared" si="6"/>
         <v>5.6756756756756754</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$U,21,0)</f>
         <v>11.8</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$V,22,0)</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="V18" s="2">
+      <c r="W18" s="2">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$N,14,0)</f>
         <v>12.6</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <f t="shared" si="1"/>
         <v>30.800000000000004</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Z18" s="23">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="AA18" s="24">
         <v>10</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -13682,64 +13695,64 @@
         <f>VLOOKUP(A19,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f>VLOOKUP(A19,[3]TDSheet!$A:$E,4,0)</f>
         <v>19.7</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="3"/>
         <v>19.8</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <f t="shared" si="4"/>
         <v>3.96</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <f t="shared" si="9"/>
         <v>30.24</v>
       </c>
-      <c r="P19" s="25"/>
-      <c r="R19" s="2">
+      <c r="Q19" s="25"/>
+      <c r="S19" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <f t="shared" si="6"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="W19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$N,14,0)</f>
         <v>2.9</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <f t="shared" si="1"/>
         <v>30.24</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Z19" s="23">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$Y,25,0)</f>
         <v>1.8</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="AA19" s="24">
         <v>16</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
@@ -13764,68 +13777,68 @@
         <f>VLOOKUP(A20,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f>VLOOKUP(A20,[3]TDSheet!$A:$E,4,0)</f>
         <v>270.10000000000002</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <f>VLOOKUP(A20,[4]TDSheet!$A:$V,6,0)</f>
         <v>270.10000000000002</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="R20" s="2" t="e">
+      <c r="Q20" s="25"/>
+      <c r="S20" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="2" t="e">
+      <c r="T20" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="31" t="s">
+      <c r="X20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Z20" s="23">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -13852,64 +13865,64 @@
         <f>VLOOKUP(A21,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f>VLOOKUP(A21,[3]TDSheet!$A:$E,4,0)</f>
         <v>29.6</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>244.20000000000002</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <f t="shared" si="3"/>
         <v>273.8</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <f t="shared" si="4"/>
         <v>54.760000000000005</v>
       </c>
-      <c r="O21" s="25">
-        <f>11*N21-F21</f>
+      <c r="P21" s="25">
+        <f>11*O21-F21</f>
         <v>480.26</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="R21" s="2">
+      <c r="Q21" s="25"/>
+      <c r="S21" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <f t="shared" si="6"/>
         <v>2.2297297297297294</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$V,22,0)</f>
         <v>2.4666666666666668</v>
       </c>
-      <c r="V21" s="2">
+      <c r="W21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$N,14,0)</f>
         <v>16.28</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <f t="shared" si="1"/>
         <v>480.26</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Z21" s="23">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3.7</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="AA21" s="24">
         <v>129</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AB21" s="2">
         <f t="shared" si="7"/>
         <v>477.3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -13932,65 +13945,65 @@
         <f>VLOOKUP(A22,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f>VLOOKUP(A22,[3]TDSheet!$A:$E,4,0)</f>
         <v>1992</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f>VLOOKUP(A22,[4]TDSheet!$A:$V,6,0)</f>
         <v>1992</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O22" s="25"/>
       <c r="P22" s="25"/>
-      <c r="R22" s="2" t="e">
+      <c r="Q22" s="25"/>
+      <c r="S22" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="2" t="e">
+      <c r="T22" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.4</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="23">
+      <c r="Z22" s="23">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
@@ -14013,65 +14026,65 @@
         <f>VLOOKUP(A23,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f>VLOOKUP(A23,[3]TDSheet!$A:$E,4,0)</f>
         <v>1074</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <f>VLOOKUP(A23,[4]TDSheet!$A:$V,6,0)</f>
         <v>1074</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="R23" s="2" t="e">
+      <c r="Q23" s="25"/>
+      <c r="S23" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="2" t="e">
+      <c r="T23" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="2">
+      <c r="W23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="23">
+      <c r="Z23" s="23">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -14094,65 +14107,65 @@
         <f>VLOOKUP(A24,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f>VLOOKUP(A24,[3]TDSheet!$A:$E,4,0)</f>
         <v>846</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <f>VLOOKUP(A24,[4]TDSheet!$A:$V,6,0)</f>
         <v>846</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="R24" s="2" t="e">
+      <c r="Q24" s="25"/>
+      <c r="S24" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="2" t="e">
+      <c r="T24" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="2">
+      <c r="W24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="2">
+      <c r="Y24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="23">
+      <c r="Z24" s="23">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
@@ -14179,68 +14192,68 @@
         <f>VLOOKUP(A25,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f>VLOOKUP(A25,[3]TDSheet!$A:$E,4,0)</f>
         <v>1407</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <f>VLOOKUP(A25,[4]TDSheet!$A:$V,6,0)</f>
         <v>1116</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <f t="shared" si="4"/>
         <v>52.2</v>
       </c>
-      <c r="O25" s="25">
-        <f t="shared" ref="O25" si="10">14*N25-F25</f>
+      <c r="P25" s="25">
+        <f t="shared" ref="P25" si="10">14*O25-F25</f>
         <v>248.80000000000007</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="R25" s="2">
+      <c r="Q25" s="25"/>
+      <c r="S25" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <f t="shared" si="6"/>
         <v>9.2337164750957843</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$U,21,0)</f>
         <v>47.6</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$V,22,0)</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="V25" s="2">
+      <c r="W25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$N,14,0)</f>
         <v>57.4</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
         <f t="shared" si="1"/>
         <v>62.200000000000017</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Z25" s="23">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z25" s="24">
+      <c r="AA25" s="24">
         <v>41</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB25" s="2">
         <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
@@ -14267,64 +14280,64 @@
         <f>VLOOKUP(A26,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f>VLOOKUP(A26,[3]TDSheet!$A:$E,4,0)</f>
         <v>357</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <f t="shared" si="4"/>
         <v>70.599999999999994</v>
       </c>
-      <c r="O26" s="25">
-        <f>12*N26-F26</f>
+      <c r="P26" s="25">
+        <f>12*O26-F26</f>
         <v>601.19999999999993</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="R26" s="2">
+      <c r="Q26" s="25"/>
+      <c r="S26" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <f t="shared" si="6"/>
         <v>3.4844192634560911</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$U,21,0)</f>
         <v>43.8</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$V,22,0)</f>
         <v>60</v>
       </c>
-      <c r="V26" s="2">
+      <c r="W26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$N,14,0)</f>
         <v>46.2</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
         <f t="shared" si="1"/>
         <v>150.29999999999998</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Z26" s="23">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z26" s="24">
+      <c r="AA26" s="24">
         <v>50</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AB26" s="2">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>31</v>
       </c>
@@ -14347,60 +14360,60 @@
         <f>VLOOKUP(A27,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O27" s="25"/>
       <c r="P27" s="25"/>
-      <c r="R27" s="2" t="e">
+      <c r="Q27" s="25"/>
+      <c r="S27" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="2" t="e">
+      <c r="T27" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$V,22,0)</f>
         <v>2</v>
       </c>
-      <c r="V27" s="2">
+      <c r="W27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$N,14,0)</f>
         <v>3.6</v>
       </c>
-      <c r="W27" s="31" t="s">
+      <c r="X27" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Z27" s="23">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
@@ -14428,62 +14441,62 @@
         <f>VLOOKUP(A28,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f>VLOOKUP(A28,[3]TDSheet!$A:$E,4,0)</f>
         <v>99</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
         <v>-63</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="R28" s="2">
+      <c r="Q28" s="25"/>
+      <c r="S28" s="2">
         <f t="shared" si="5"/>
         <v>30.138888888888889</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <f t="shared" si="6"/>
         <v>30.138888888888889</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$U,21,0)</f>
         <v>22.8</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$V,22,0)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="V28" s="2">
+      <c r="W28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$N,14,0)</f>
         <v>27.6</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="23">
+      <c r="Z28" s="23">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z28" s="24">
+      <c r="AA28" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB28" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
@@ -14506,65 +14519,65 @@
         <f>VLOOKUP(A29,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f>VLOOKUP(A29,[3]TDSheet!$A:$E,4,0)</f>
         <v>636</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <f>VLOOKUP(A29,[4]TDSheet!$A:$V,6,0)</f>
         <v>636</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="R29" s="2" t="e">
+      <c r="Q29" s="25"/>
+      <c r="S29" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="2" t="e">
+      <c r="T29" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V29" s="2">
+      <c r="W29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Z29" s="23">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
@@ -14587,65 +14600,65 @@
         <f>VLOOKUP(A30,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f>VLOOKUP(A30,[3]TDSheet!$A:$E,4,0)</f>
         <v>864</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <f>VLOOKUP(A30,[4]TDSheet!$A:$V,6,0)</f>
         <v>864</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="R30" s="2" t="e">
+      <c r="Q30" s="25"/>
+      <c r="S30" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="2" t="e">
+      <c r="T30" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.2</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="2">
+      <c r="W30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="23">
+      <c r="Z30" s="23">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -14668,65 +14681,65 @@
         <f>VLOOKUP(A31,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f>VLOOKUP(A31,[3]TDSheet!$A:$E,4,0)</f>
         <v>768</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <f>VLOOKUP(A31,[4]TDSheet!$A:$V,6,0)</f>
         <v>768</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O31" s="25"/>
       <c r="P31" s="25"/>
-      <c r="R31" s="2" t="e">
+      <c r="Q31" s="25"/>
+      <c r="S31" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="2" t="e">
+      <c r="T31" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V31" s="2">
+      <c r="W31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="23">
+      <c r="Z31" s="23">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
@@ -14753,66 +14766,66 @@
         <f>VLOOKUP(A32,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f>VLOOKUP(A32,[3]TDSheet!$A:$E,4,0)</f>
         <v>960</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <f>VLOOKUP(A32,[4]TDSheet!$A:$V,6,0)</f>
         <v>888</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <f t="shared" si="4"/>
         <v>8.4</v>
       </c>
-      <c r="O32" s="25"/>
       <c r="P32" s="25"/>
-      <c r="R32" s="2">
+      <c r="Q32" s="25"/>
+      <c r="S32" s="2">
         <f t="shared" si="5"/>
         <v>15.357142857142856</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <f t="shared" si="6"/>
         <v>15.357142857142856</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$U,21,0)</f>
         <v>17</v>
       </c>
-      <c r="U32" s="2">
+      <c r="V32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V32" s="2">
+      <c r="W32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$N,14,0)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="23">
+      <c r="Z32" s="23">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="AA32" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AB32" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -14835,65 +14848,65 @@
         <f>VLOOKUP(A33,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f>VLOOKUP(A33,[3]TDSheet!$A:$E,4,0)</f>
         <v>1384</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <f>VLOOKUP(A33,[4]TDSheet!$A:$V,6,0)</f>
         <v>1384</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="R33" s="2" t="e">
+      <c r="Q33" s="25"/>
+      <c r="S33" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="2" t="e">
+      <c r="T33" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V33" s="2">
+      <c r="W33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Z33" s="23">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
@@ -14916,65 +14929,65 @@
         <f>VLOOKUP(A34,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f>VLOOKUP(A34,[3]TDSheet!$A:$E,4,0)</f>
         <v>928</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <f>VLOOKUP(A34,[4]TDSheet!$A:$V,6,0)</f>
         <v>928</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="R34" s="2" t="e">
+      <c r="Q34" s="25"/>
+      <c r="S34" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="2" t="e">
+      <c r="T34" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.4</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V34" s="2">
+      <c r="W34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="23">
+      <c r="Z34" s="23">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2">
+      <c r="AA34" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
@@ -15001,62 +15014,62 @@
         <f>VLOOKUP(A35,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f>VLOOKUP(A35,[3]TDSheet!$A:$E,4,0)</f>
         <v>74</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="R35" s="2">
+      <c r="Q35" s="25"/>
+      <c r="S35" s="2">
         <f t="shared" si="5"/>
         <v>14.901960784313726</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <f t="shared" si="6"/>
         <v>14.901960784313726</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$U,21,0)</f>
         <v>10.4</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$V,22,0)</f>
         <v>7</v>
       </c>
-      <c r="V35" s="2">
+      <c r="W35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$N,14,0)</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="23">
+      <c r="Z35" s="23">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z35" s="24">
+      <c r="AA35" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>40</v>
       </c>
@@ -15083,62 +15096,62 @@
         <f>VLOOKUP(A36,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f>VLOOKUP(A36,[3]TDSheet!$A:$E,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="R36" s="2">
+      <c r="Q36" s="25"/>
+      <c r="S36" s="2">
         <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$U,21,0)</f>
         <v>7.8</v>
       </c>
-      <c r="U36" s="2">
+      <c r="V36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$V,22,0)</f>
         <v>8</v>
       </c>
-      <c r="V36" s="2">
+      <c r="W36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$N,14,0)</f>
         <v>18.2</v>
       </c>
-      <c r="X36" s="2">
+      <c r="Y36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="23">
+      <c r="Z36" s="23">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z36" s="24">
+      <c r="AA36" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
@@ -15163,61 +15176,61 @@
         <f>VLOOKUP(A37,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f>VLOOKUP(A37,[3]TDSheet!$A:$E,4,0)</f>
         <v>36</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="R37" s="2">
+      <c r="Q37" s="25"/>
+      <c r="S37" s="2">
         <f t="shared" si="5"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <f t="shared" si="6"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$U,21,0)</f>
         <v>6.8</v>
       </c>
-      <c r="U37" s="2">
+      <c r="V37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$V,22,0)</f>
         <v>3</v>
       </c>
-      <c r="V37" s="2">
+      <c r="W37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$N,14,0)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="X37" s="2">
+      <c r="Y37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="23">
+      <c r="Z37" s="23">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
+      <c r="AA37" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -15240,65 +15253,65 @@
         <f>VLOOKUP(A38,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f>VLOOKUP(A38,[3]TDSheet!$A:$E,4,0)</f>
         <v>1008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <f>VLOOKUP(A38,[4]TDSheet!$A:$V,6,0)</f>
         <v>1008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="R38" s="2" t="e">
+      <c r="Q38" s="25"/>
+      <c r="S38" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="2" t="e">
+      <c r="T38" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X38" s="2">
-        <f t="shared" ref="X38:X72" si="11">O38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="23">
+      <c r="Y38" s="2">
+        <f t="shared" ref="Y38:Y72" si="11">P38*G38</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="23">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
+      <c r="AA38" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
@@ -15325,66 +15338,66 @@
         <f>VLOOKUP(A39,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f>VLOOKUP(A39,[3]TDSheet!$A:$E,4,0)</f>
         <v>1960</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="2"/>
         <v>-45</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <f>VLOOKUP(A39,[4]TDSheet!$A:$V,6,0)</f>
         <v>1856</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <f t="shared" si="4"/>
         <v>11.8</v>
       </c>
-      <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="R39" s="2">
+      <c r="Q39" s="25"/>
+      <c r="S39" s="2">
         <f t="shared" si="5"/>
         <v>14.23728813559322</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <f t="shared" si="6"/>
         <v>14.23728813559322</v>
       </c>
-      <c r="T39" s="2">
+      <c r="U39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$U,21,0)</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="U39" s="2">
+      <c r="V39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$V,22,0)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="V39" s="2">
+      <c r="W39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$N,14,0)</f>
         <v>21.8</v>
       </c>
-      <c r="X39" s="2">
+      <c r="Y39" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="23">
+      <c r="Z39" s="23">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="AA39" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AB39" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -15411,66 +15424,66 @@
         <f>VLOOKUP(A40,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f>VLOOKUP(A40,[3]TDSheet!$A:$E,4,0)</f>
         <v>1336</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <f>VLOOKUP(A40,[4]TDSheet!$A:$V,6,0)</f>
         <v>1296</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="R40" s="2">
+      <c r="Q40" s="25"/>
+      <c r="S40" s="2">
         <f t="shared" si="5"/>
         <v>14.625</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <f t="shared" si="6"/>
         <v>14.625</v>
       </c>
-      <c r="T40" s="2">
+      <c r="U40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="2">
+      <c r="V40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$V,22,0)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V40" s="2">
+      <c r="W40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$N,14,0)</f>
         <v>6.4</v>
       </c>
-      <c r="X40" s="2">
+      <c r="Y40" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="23">
+      <c r="Z40" s="23">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z40" s="24">
+      <c r="AA40" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AB40" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
@@ -15497,64 +15510,64 @@
         <f>VLOOKUP(A41,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <f>VLOOKUP(A41,[3]TDSheet!$A:$E,4,0)</f>
         <v>395</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="2"/>
         <v>-35</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="O41" s="25">
-        <f t="shared" ref="O41:O43" si="12">14*N41-F41</f>
+      <c r="P41" s="25">
+        <f t="shared" ref="P41:P43" si="12">14*O41-F41</f>
         <v>208</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="R41" s="2">
+      <c r="Q41" s="25"/>
+      <c r="S41" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <f t="shared" si="6"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="T41" s="2">
+      <c r="U41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$U,21,0)</f>
         <v>94</v>
       </c>
-      <c r="U41" s="2">
+      <c r="V41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$V,22,0)</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="V41" s="2">
+      <c r="W41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$N,14,0)</f>
         <v>100</v>
       </c>
-      <c r="X41" s="2">
+      <c r="Y41" s="2">
         <f t="shared" si="11"/>
         <v>208</v>
       </c>
-      <c r="Y41" s="23">
+      <c r="Z41" s="23">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
-      <c r="Z41" s="24">
+      <c r="AA41" s="24">
         <v>41</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AB41" s="2">
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
@@ -15581,66 +15594,66 @@
         <f>VLOOKUP(A42,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f>VLOOKUP(A42,[3]TDSheet!$A:$E,4,0)</f>
         <v>1563</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <f t="shared" si="2"/>
         <v>-28</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <f>VLOOKUP(A42,[4]TDSheet!$A:$V,6,0)</f>
         <v>1440</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O42" s="25"/>
       <c r="P42" s="25"/>
-      <c r="R42" s="2">
+      <c r="Q42" s="25"/>
+      <c r="S42" s="2">
         <f t="shared" si="5"/>
         <v>16.421052631578949</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <f t="shared" si="6"/>
         <v>16.421052631578949</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$U,21,0)</f>
         <v>41.8</v>
       </c>
-      <c r="U42" s="2">
+      <c r="V42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$V,22,0)</f>
         <v>20.333333333333332</v>
       </c>
-      <c r="V42" s="2">
+      <c r="W42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$N,14,0)</f>
         <v>41</v>
       </c>
-      <c r="X42" s="2">
+      <c r="Y42" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="23">
+      <c r="Z42" s="23">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="AA42" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AB42" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
@@ -15667,68 +15680,68 @@
         <f>VLOOKUP(A43,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f>VLOOKUP(A43,[3]TDSheet!$A:$E,4,0)</f>
         <v>1203</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <f>VLOOKUP(A43,[4]TDSheet!$A:$V,6,0)</f>
         <v>1152</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <f t="shared" si="4"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="O43" s="25">
+      <c r="P43" s="25">
         <f t="shared" si="12"/>
         <v>47.200000000000017</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="R43" s="2">
+      <c r="Q43" s="25"/>
+      <c r="S43" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <f t="shared" si="6"/>
         <v>9.1836734693877542</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$U,21,0)</f>
         <v>1</v>
       </c>
-      <c r="U43" s="2">
+      <c r="V43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$V,22,0)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V43" s="2">
+      <c r="W43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$N,14,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="X43" s="2">
+      <c r="Y43" s="2">
         <f t="shared" si="11"/>
         <v>20.296000000000006</v>
       </c>
-      <c r="Y43" s="23">
+      <c r="Z43" s="23">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z43" s="24">
+      <c r="AA43" s="24">
         <v>3</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AB43" s="2">
         <f t="shared" si="7"/>
         <v>20.64</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -15751,61 +15764,61 @@
         <f>VLOOKUP(A44,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f>VLOOKUP(A44,[3]TDSheet!$A:$E,4,0)</f>
         <v>26</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="O44" s="25"/>
       <c r="P44" s="25"/>
-      <c r="R44" s="2">
+      <c r="Q44" s="25"/>
+      <c r="S44" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$U,21,0)</f>
         <v>7.4</v>
       </c>
-      <c r="U44" s="2">
+      <c r="V44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$V,22,0)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="V44" s="2">
+      <c r="W44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$N,14,0)</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="X44" s="2">
+      <c r="Y44" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="23">
+      <c r="Z44" s="23">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z44" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
+      <c r="AA44" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
@@ -15832,64 +15845,64 @@
         <f>VLOOKUP(A45,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f>VLOOKUP(A45,[3]TDSheet!$A:$E,4,0)</f>
         <v>114</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <f t="shared" si="4"/>
         <v>25.2</v>
       </c>
-      <c r="O45" s="25">
-        <f>12*N45-F45</f>
+      <c r="P45" s="25">
+        <f>12*O45-F45</f>
         <v>226.39999999999998</v>
       </c>
-      <c r="P45" s="25"/>
-      <c r="R45" s="2">
+      <c r="Q45" s="25"/>
+      <c r="S45" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <f t="shared" si="6"/>
         <v>3.0158730158730158</v>
       </c>
-      <c r="T45" s="2">
+      <c r="U45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$U,21,0)</f>
         <v>14</v>
       </c>
-      <c r="U45" s="2">
+      <c r="V45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$V,22,0)</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="V45" s="2">
+      <c r="W45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$N,14,0)</f>
         <v>15.6</v>
       </c>
-      <c r="X45" s="2">
+      <c r="Y45" s="2">
         <f t="shared" si="11"/>
         <v>158.47999999999996</v>
       </c>
-      <c r="Y45" s="23">
+      <c r="Z45" s="23">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z45" s="24">
+      <c r="AA45" s="24">
         <v>28</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AB45" s="2">
         <f t="shared" si="7"/>
         <v>156.79999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
@@ -15914,66 +15927,66 @@
         <f>VLOOKUP(A46,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f>VLOOKUP(A46,[3]TDSheet!$A:$E,4,0)</f>
         <v>20</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="O46" s="25"/>
       <c r="P46" s="25"/>
-      <c r="R46" s="2">
+      <c r="Q46" s="25"/>
+      <c r="S46" s="2">
         <f t="shared" si="5"/>
         <v>14.861111111111111</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <f t="shared" si="6"/>
         <v>14.861111111111111</v>
       </c>
-      <c r="T46" s="2">
+      <c r="U46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$U,21,0)</f>
         <v>2.6</v>
       </c>
-      <c r="U46" s="2">
+      <c r="V46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="V46" s="2">
+      <c r="W46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$N,14,0)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="W46" s="26" t="str">
+      <c r="X46" s="26" t="str">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$W,23,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
-      <c r="X46" s="2">
+      <c r="Y46" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="23">
+      <c r="Z46" s="23">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z46" s="24">
+      <c r="AA46" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AB46" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
@@ -16000,64 +16013,64 @@
         <f>VLOOKUP(A47,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <f>VLOOKUP(A47,[3]TDSheet!$A:$E,4,0)</f>
         <v>117</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <f t="shared" si="2"/>
         <v>-31</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
-      <c r="O47" s="25">
-        <f t="shared" ref="O47" si="13">14*N47-F47</f>
+      <c r="P47" s="25">
+        <f t="shared" ref="P47" si="13">14*O47-F47</f>
         <v>159.79999999999998</v>
       </c>
-      <c r="P47" s="25"/>
-      <c r="R47" s="2">
+      <c r="Q47" s="25"/>
+      <c r="S47" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <f t="shared" si="6"/>
         <v>4.7093023255813957</v>
       </c>
-      <c r="T47" s="2">
+      <c r="U47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$U,21,0)</f>
         <v>12.8</v>
       </c>
-      <c r="U47" s="2">
+      <c r="V47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$V,22,0)</f>
         <v>12.333333333333334</v>
       </c>
-      <c r="V47" s="2">
+      <c r="W47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$N,14,0)</f>
         <v>12.8</v>
       </c>
-      <c r="X47" s="2">
+      <c r="Y47" s="2">
         <f t="shared" si="11"/>
         <v>143.82</v>
       </c>
-      <c r="Y47" s="23">
+      <c r="Z47" s="23">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z47" s="24">
+      <c r="AA47" s="24">
         <v>20</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AB47" s="2">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
@@ -16082,64 +16095,64 @@
         <f>VLOOKUP(A48,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <f>VLOOKUP(A48,[3]TDSheet!$A:$E,4,0)</f>
         <v>21</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="O48" s="25">
-        <f>12*N48-F48</f>
+      <c r="P48" s="25">
+        <f>12*O48-F48</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="P48" s="25"/>
-      <c r="R48" s="2">
+      <c r="Q48" s="25"/>
+      <c r="S48" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$U,21,0)</f>
         <v>2.8</v>
       </c>
-      <c r="U48" s="2">
+      <c r="V48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="V48" s="2">
+      <c r="W48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$N,14,0)</f>
         <v>3.4</v>
       </c>
-      <c r="X48" s="2">
+      <c r="Y48" s="2">
         <f t="shared" si="11"/>
         <v>29.412000000000003</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Z48" s="23">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z48" s="24">
+      <c r="AA48" s="24">
         <v>4</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AB48" s="2">
         <f t="shared" si="7"/>
         <v>27.52</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
@@ -16166,62 +16179,62 @@
         <f>VLOOKUP(A49,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <f>VLOOKUP(A49,[3]TDSheet!$A:$E,4,0)</f>
         <v>39</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="O49" s="25"/>
       <c r="P49" s="25"/>
-      <c r="R49" s="2">
+      <c r="Q49" s="25"/>
+      <c r="S49" s="2">
         <f t="shared" si="5"/>
         <v>27.69230769230769</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <f t="shared" si="6"/>
         <v>27.69230769230769</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$U,21,0)</f>
         <v>11.2</v>
       </c>
-      <c r="U49" s="2">
+      <c r="V49" s="2">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$V,22,0)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="V49" s="2">
+      <c r="W49" s="2">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$N,14,0)</f>
         <v>19.2</v>
       </c>
-      <c r="X49" s="2">
+      <c r="Y49" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="23">
+      <c r="Z49" s="23">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z49" s="24">
+      <c r="AA49" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AB49" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
@@ -16248,62 +16261,62 @@
         <f>VLOOKUP(A50,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <f>VLOOKUP(A50,[3]TDSheet!$A:$E,4,0)</f>
         <v>195</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <f t="shared" si="2"/>
         <v>-35</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="O50" s="25"/>
       <c r="P50" s="25"/>
-      <c r="R50" s="2">
+      <c r="Q50" s="25"/>
+      <c r="S50" s="2">
         <f t="shared" si="5"/>
         <v>22.8125</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <f t="shared" si="6"/>
         <v>22.8125</v>
       </c>
-      <c r="T50" s="2">
+      <c r="U50" s="2">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$U,21,0)</f>
         <v>68.72</v>
       </c>
-      <c r="U50" s="2">
+      <c r="V50" s="2">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$V,22,0)</f>
         <v>35</v>
       </c>
-      <c r="V50" s="2">
+      <c r="W50" s="2">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$N,14,0)</f>
         <v>89</v>
       </c>
-      <c r="X50" s="2">
+      <c r="Y50" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="23">
+      <c r="Z50" s="23">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
-      <c r="Z50" s="24">
+      <c r="AA50" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AB50" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
@@ -16328,65 +16341,65 @@
         <f>VLOOKUP(A51,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <f>VLOOKUP(A51,[3]TDSheet!$A:$E,4,0)</f>
         <v>34</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <f t="shared" si="4"/>
         <v>5.6</v>
       </c>
-      <c r="O51" s="25"/>
       <c r="P51" s="25"/>
-      <c r="R51" s="2">
+      <c r="Q51" s="25"/>
+      <c r="S51" s="2">
         <f t="shared" si="5"/>
         <v>43.214285714285715</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <f t="shared" si="6"/>
         <v>43.214285714285715</v>
       </c>
-      <c r="T51" s="2">
+      <c r="U51" s="2">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.4</v>
       </c>
-      <c r="U51" s="2">
+      <c r="V51" s="2">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="V51" s="2">
+      <c r="W51" s="2">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$N,14,0)</f>
         <v>6.4</v>
       </c>
-      <c r="W51" s="26" t="str">
+      <c r="X51" s="26" t="str">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$W,23,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
-      <c r="X51" s="2">
+      <c r="Y51" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="23">
+      <c r="Z51" s="23">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z51" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2">
+      <c r="AA51" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
@@ -16411,66 +16424,66 @@
         <f>VLOOKUP(A52,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <f>VLOOKUP(A52,[3]TDSheet!$A:$E,4,0)</f>
         <v>2</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O52" s="25"/>
       <c r="P52" s="25"/>
-      <c r="R52" s="2">
+      <c r="Q52" s="25"/>
+      <c r="S52" s="2">
         <f t="shared" si="5"/>
         <v>76.25</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <f t="shared" si="6"/>
         <v>76.25</v>
       </c>
-      <c r="T52" s="2">
+      <c r="U52" s="2">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.6</v>
       </c>
-      <c r="U52" s="2">
+      <c r="V52" s="2">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$V,22,0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V52" s="2">
+      <c r="W52" s="2">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$N,14,0)</f>
         <v>0.6</v>
       </c>
-      <c r="W52" s="26" t="str">
+      <c r="X52" s="26" t="str">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$W,23,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
-      <c r="X52" s="2">
+      <c r="Y52" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="23">
+      <c r="Z52" s="23">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z52" s="24">
+      <c r="AA52" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AB52" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
@@ -16497,64 +16510,64 @@
         <f>VLOOKUP(A53,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <f>VLOOKUP(A53,[3]TDSheet!$A:$E,4,0)</f>
         <v>19</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <f t="shared" si="4"/>
         <v>6.2</v>
       </c>
-      <c r="O53" s="25">
-        <f>13*N53-F53</f>
+      <c r="P53" s="25">
+        <f>13*O53-F53</f>
         <v>56.600000000000009</v>
       </c>
-      <c r="P53" s="25"/>
-      <c r="R53" s="2">
+      <c r="Q53" s="25"/>
+      <c r="S53" s="2">
         <f t="shared" si="5"/>
         <v>13.000000000000002</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <f t="shared" si="6"/>
         <v>3.8709677419354835</v>
       </c>
-      <c r="T53" s="2">
+      <c r="U53" s="2">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.8</v>
       </c>
-      <c r="U53" s="2">
+      <c r="V53" s="2">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$V,22,0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V53" s="2">
+      <c r="W53" s="2">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$N,14,0)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="X53" s="2">
+      <c r="Y53" s="2">
         <f t="shared" si="11"/>
         <v>50.940000000000012</v>
       </c>
-      <c r="Y53" s="23">
+      <c r="Z53" s="23">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z53" s="24">
+      <c r="AA53" s="24">
         <v>7</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AB53" s="2">
         <f t="shared" si="7"/>
         <v>50.4</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>58</v>
       </c>
@@ -16578,57 +16591,57 @@
         <f>VLOOKUP(A54,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <f>VLOOKUP(A54,[3]TDSheet!$A:$E,4,0)</f>
         <v>4</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="O54" s="25"/>
       <c r="P54" s="25"/>
-      <c r="R54" s="2">
+      <c r="Q54" s="25"/>
+      <c r="S54" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
       </c>
-      <c r="X54" s="2">
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
+      <c r="Z54" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
@@ -16651,62 +16664,62 @@
         <f>VLOOKUP(A55,[2]Лист1!$A:$G,7,0)</f>
         <v>365</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O55" s="25"/>
       <c r="P55" s="25"/>
-      <c r="R55" s="2" t="e">
+      <c r="Q55" s="25"/>
+      <c r="S55" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S55" s="2" t="e">
+      <c r="T55" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="2">
+      <c r="U55" s="2">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="2">
+      <c r="V55" s="2">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V55" s="2">
+      <c r="W55" s="2">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="26" t="str">
+      <c r="X55" s="26" t="str">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$W,23,0)</f>
         <v>необходимо увеличить продажи</v>
       </c>
-      <c r="X55" s="2">
+      <c r="Y55" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="23">
+      <c r="Z55" s="23">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z55" s="24">
+      <c r="AA55" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AB55" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>60</v>
       </c>
@@ -16733,61 +16746,61 @@
         <f>VLOOKUP(A56,[2]Лист1!$A:$G,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <f>VLOOKUP(A56,[3]TDSheet!$A:$E,4,0)</f>
         <v>41.7</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <f t="shared" si="2"/>
         <v>-8.7000000000000028</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O56" s="2">
         <f t="shared" si="4"/>
         <v>6.6</v>
       </c>
-      <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="R56" s="2">
+      <c r="Q56" s="25"/>
+      <c r="S56" s="2">
         <f t="shared" si="5"/>
         <v>1.3636363636363638</v>
       </c>
-      <c r="S56" s="2">
+      <c r="T56" s="2">
         <f t="shared" si="6"/>
         <v>1.3636363636363638</v>
       </c>
-      <c r="T56" s="2">
+      <c r="U56" s="2">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="2">
+      <c r="V56" s="2">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V56" s="2">
+      <c r="W56" s="2">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$N,14,0)</f>
         <v>3.6</v>
       </c>
-      <c r="X56" s="2">
+      <c r="Y56" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="23">
+      <c r="Z56" s="23">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z56" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
+      <c r="AA56" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
@@ -16808,57 +16821,57 @@
         <f>VLOOKUP(A57,[2]Лист1!$A:$G,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N57" s="2">
+      <c r="O57" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O57" s="25"/>
       <c r="P57" s="25"/>
-      <c r="R57" s="2" t="e">
+      <c r="Q57" s="25"/>
+      <c r="S57" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S57" s="2" t="e">
+      <c r="T57" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="2">
+      <c r="U57" s="2">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$U,21,0)</f>
         <v>3</v>
       </c>
-      <c r="U57" s="2">
+      <c r="V57" s="2">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$V,22,0)</f>
         <v>1</v>
       </c>
-      <c r="V57" s="2">
+      <c r="W57" s="2">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$N,14,0)</f>
         <v>1.2</v>
       </c>
-      <c r="X57" s="2">
+      <c r="Y57" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="23">
+      <c r="Z57" s="23">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z57" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
+      <c r="AA57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>62</v>
       </c>
@@ -16881,61 +16894,61 @@
         <f>VLOOKUP(A58,[2]Лист1!$A:$G,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <f>VLOOKUP(A58,[3]TDSheet!$A:$E,4,0)</f>
         <v>5</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N58" s="2">
+      <c r="O58" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O58" s="25"/>
       <c r="P58" s="25"/>
-      <c r="R58" s="2">
+      <c r="Q58" s="25"/>
+      <c r="S58" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S58" s="2">
+      <c r="T58" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T58" s="2">
+      <c r="U58" s="2">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$U,21,0)</f>
         <v>4</v>
       </c>
-      <c r="U58" s="2">
+      <c r="V58" s="2">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="V58" s="2">
+      <c r="W58" s="2">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$N,14,0)</f>
         <v>5</v>
       </c>
-      <c r="X58" s="2">
+      <c r="Y58" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="23">
+      <c r="Z58" s="23">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z58" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="2">
+      <c r="AA58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>63</v>
       </c>
@@ -16958,57 +16971,57 @@
         <f>VLOOKUP(A59,[2]Лист1!$A:$G,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="N59" s="2">
+      <c r="O59" s="2">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="O59" s="25"/>
       <c r="P59" s="25"/>
-      <c r="R59" s="2">
+      <c r="Q59" s="25"/>
+      <c r="S59" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S59" s="2">
+      <c r="T59" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T59" s="2">
+      <c r="U59" s="2">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$U,21,0)</f>
         <v>3.2</v>
       </c>
-      <c r="U59" s="2">
+      <c r="V59" s="2">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$V,22,0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V59" s="2">
+      <c r="W59" s="2">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$N,14,0)</f>
         <v>0</v>
       </c>
-      <c r="X59" s="2">
+      <c r="Y59" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="23">
+      <c r="Z59" s="23">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z59" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
+      <c r="AA59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>64</v>
       </c>
@@ -17035,61 +17048,61 @@
         <f>VLOOKUP(A60,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <f>VLOOKUP(A60,[3]TDSheet!$A:$E,4,0)</f>
         <v>14.8</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <f t="shared" si="2"/>
         <v>6.1999999999999993</v>
       </c>
-      <c r="K60" s="2">
+      <c r="L60" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="N60" s="2">
+      <c r="O60" s="2">
         <f t="shared" si="4"/>
         <v>4.2</v>
       </c>
-      <c r="O60" s="25"/>
       <c r="P60" s="25"/>
-      <c r="R60" s="2">
+      <c r="Q60" s="25"/>
+      <c r="S60" s="2">
         <f t="shared" si="5"/>
         <v>7.8571428571428568</v>
       </c>
-      <c r="S60" s="2">
+      <c r="T60" s="2">
         <f t="shared" si="6"/>
         <v>7.8571428571428568</v>
       </c>
-      <c r="T60" s="2">
+      <c r="U60" s="2">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$U,21,0)</f>
         <v>3</v>
       </c>
-      <c r="U60" s="2">
+      <c r="V60" s="2">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V60" s="2">
+      <c r="W60" s="2">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$N,14,0)</f>
         <v>2.4</v>
       </c>
-      <c r="X60" s="2">
+      <c r="Y60" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y60" s="23">
+      <c r="Z60" s="23">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$Y,25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="2">
+      <c r="AA60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
@@ -17116,62 +17129,62 @@
         <f>VLOOKUP(A61,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <f>VLOOKUP(A61,[3]TDSheet!$A:$E,4,0)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N61" s="2">
+      <c r="O61" s="2">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="O61" s="25"/>
       <c r="P61" s="25"/>
-      <c r="R61" s="2">
+      <c r="Q61" s="25"/>
+      <c r="S61" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="S61" s="2">
+      <c r="T61" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="T61" s="2">
+      <c r="U61" s="2">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$U,21,0)</f>
         <v>0.6</v>
       </c>
-      <c r="U61" s="2">
+      <c r="V61" s="2">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$V,22,0)</f>
         <v>0</v>
       </c>
-      <c r="V61" s="2">
+      <c r="W61" s="2">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$N,14,0)</f>
         <v>6</v>
       </c>
-      <c r="X61" s="2">
+      <c r="Y61" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="23">
+      <c r="Z61" s="23">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3</v>
       </c>
-      <c r="Z61" s="24">
+      <c r="AA61" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AB61" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>66</v>
       </c>
@@ -17198,68 +17211,68 @@
         <f>VLOOKUP(A62,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <f>VLOOKUP(A62,[3]TDSheet!$A:$E,4,0)</f>
         <v>1168</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <f t="shared" si="2"/>
         <v>-27</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="L62" s="2">
+      <c r="M62" s="2">
         <f>VLOOKUP(A62,[4]TDSheet!$A:$V,6,0)</f>
         <v>1080</v>
       </c>
-      <c r="N62" s="2">
+      <c r="O62" s="2">
         <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
-      <c r="O62" s="25">
-        <f t="shared" ref="O62:O69" si="14">14*N62-F62</f>
+      <c r="P62" s="25">
+        <f t="shared" ref="P62:P69" si="14">14*O62-F62</f>
         <v>2.7999999999999829</v>
       </c>
-      <c r="P62" s="25"/>
-      <c r="R62" s="2">
+      <c r="Q62" s="25"/>
+      <c r="S62" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S62" s="2">
+      <c r="T62" s="2">
         <f t="shared" si="6"/>
         <v>13.77049180327869</v>
       </c>
-      <c r="T62" s="2">
+      <c r="U62" s="2">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$U,21,0)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="U62" s="2">
+      <c r="V62" s="2">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$V,22,0)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="V62" s="2">
+      <c r="W62" s="2">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$N,14,0)</f>
         <v>21.8</v>
       </c>
-      <c r="X62" s="2">
+      <c r="Y62" s="2">
         <f t="shared" si="11"/>
         <v>0.69999999999999574</v>
       </c>
-      <c r="Y62" s="23">
+      <c r="Z62" s="23">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z62" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2">
+      <c r="AA62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>67</v>
       </c>
@@ -17286,68 +17299,68 @@
         <f>VLOOKUP(A63,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <f>VLOOKUP(A63,[3]TDSheet!$A:$E,4,0)</f>
         <v>827</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L63" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L63" s="2">
+      <c r="M63" s="2">
         <f>VLOOKUP(A63,[4]TDSheet!$A:$V,6,0)</f>
         <v>756</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O63" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O63" s="25">
+      <c r="P63" s="25">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="P63" s="25"/>
-      <c r="R63" s="2">
+      <c r="Q63" s="25"/>
+      <c r="S63" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S63" s="2">
+      <c r="T63" s="2">
         <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
-      <c r="T63" s="2">
+      <c r="U63" s="2">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$U,21,0)</f>
         <v>13</v>
       </c>
-      <c r="U63" s="2">
+      <c r="V63" s="2">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$V,22,0)</f>
         <v>9</v>
       </c>
-      <c r="V63" s="2">
+      <c r="W63" s="2">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$N,14,0)</f>
         <v>13.2</v>
       </c>
-      <c r="X63" s="2">
+      <c r="Y63" s="2">
         <f t="shared" si="11"/>
         <v>9.6</v>
       </c>
-      <c r="Y63" s="23">
+      <c r="Z63" s="23">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z63" s="24">
+      <c r="AA63" s="24">
         <v>3</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AB63" s="2">
         <f t="shared" si="7"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
@@ -17374,68 +17387,68 @@
         <f>VLOOKUP(A64,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <f>VLOOKUP(A64,[3]TDSheet!$A:$E,4,0)</f>
         <v>921</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K64" s="2">
+      <c r="L64" s="2">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="L64" s="2">
+      <c r="M64" s="2">
         <f>VLOOKUP(A64,[4]TDSheet!$A:$V,6,0)</f>
         <v>828</v>
       </c>
-      <c r="N64" s="2">
+      <c r="O64" s="2">
         <f t="shared" si="4"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="O64" s="25">
+      <c r="P64" s="25">
         <f t="shared" si="14"/>
         <v>91.400000000000034</v>
       </c>
-      <c r="P64" s="25"/>
-      <c r="R64" s="2">
+      <c r="Q64" s="25"/>
+      <c r="S64" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S64" s="2">
+      <c r="T64" s="2">
         <f t="shared" si="6"/>
         <v>9.086021505376344</v>
       </c>
-      <c r="T64" s="2">
+      <c r="U64" s="2">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$U,21,0)</f>
         <v>15.4</v>
       </c>
-      <c r="U64" s="2">
+      <c r="V64" s="2">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$V,22,0)</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="V64" s="2">
+      <c r="W64" s="2">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$N,14,0)</f>
         <v>18.2</v>
       </c>
-      <c r="X64" s="2">
+      <c r="Y64" s="2">
         <f t="shared" si="11"/>
         <v>27.420000000000009</v>
       </c>
-      <c r="Y64" s="23">
+      <c r="Z64" s="23">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z64" s="24">
+      <c r="AA64" s="24">
         <v>7</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AB64" s="2">
         <f t="shared" si="7"/>
         <v>25.2</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>69</v>
       </c>
@@ -17462,64 +17475,64 @@
         <f>VLOOKUP(A65,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <f>VLOOKUP(A65,[3]TDSheet!$A:$E,4,0)</f>
         <v>46</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <f t="shared" si="2"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L65" s="2">
         <f t="shared" si="3"/>
         <v>46.8</v>
       </c>
-      <c r="N65" s="2">
+      <c r="O65" s="2">
         <f t="shared" si="4"/>
         <v>9.36</v>
       </c>
-      <c r="O65" s="25">
+      <c r="P65" s="25">
         <f t="shared" si="14"/>
         <v>71.639999999999986</v>
       </c>
-      <c r="P65" s="25"/>
-      <c r="R65" s="2">
+      <c r="Q65" s="25"/>
+      <c r="S65" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S65" s="2">
+      <c r="T65" s="2">
         <f t="shared" si="6"/>
         <v>6.3461538461538467</v>
       </c>
-      <c r="T65" s="2">
+      <c r="U65" s="2">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$U,21,0)</f>
         <v>6.8400000000000007</v>
       </c>
-      <c r="U65" s="2">
+      <c r="V65" s="2">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$V,22,0)</f>
         <v>12.933333333333332</v>
       </c>
-      <c r="V65" s="2">
+      <c r="W65" s="2">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$N,14,0)</f>
         <v>6.12</v>
       </c>
-      <c r="X65" s="2">
+      <c r="Y65" s="2">
         <f t="shared" si="11"/>
         <v>71.639999999999986</v>
       </c>
-      <c r="Y65" s="23">
+      <c r="Z65" s="23">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$Y,25,0)</f>
         <v>1.8</v>
       </c>
-      <c r="Z65" s="24">
+      <c r="AA65" s="24">
         <v>39</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AB65" s="2">
         <f t="shared" si="7"/>
         <v>70.2</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>70</v>
       </c>
@@ -17544,64 +17557,64 @@
         <f>VLOOKUP(A66,[2]Лист1!$A:$G,7,0)</f>
         <v>365</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J66" s="2">
         <f>VLOOKUP(A66,[3]TDSheet!$A:$E,4,0)</f>
         <v>40</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L66" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N66" s="2">
+      <c r="O66" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O66" s="25">
+      <c r="P66" s="25">
         <f t="shared" si="14"/>
         <v>74</v>
       </c>
-      <c r="P66" s="25"/>
-      <c r="R66" s="2">
+      <c r="Q66" s="25"/>
+      <c r="S66" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S66" s="2">
+      <c r="T66" s="2">
         <f t="shared" si="6"/>
         <v>4.75</v>
       </c>
-      <c r="T66" s="2">
+      <c r="U66" s="2">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$U,21,0)</f>
         <v>4</v>
       </c>
-      <c r="U66" s="2">
+      <c r="V66" s="2">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$V,22,0)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="V66" s="2">
+      <c r="W66" s="2">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$N,14,0)</f>
         <v>6</v>
       </c>
-      <c r="X66" s="2">
+      <c r="Y66" s="2">
         <f t="shared" si="11"/>
         <v>14.8</v>
       </c>
-      <c r="Y66" s="23">
+      <c r="Z66" s="23">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z66" s="24">
+      <c r="AA66" s="24">
         <v>12</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AB66" s="2">
         <f t="shared" si="7"/>
         <v>14.4</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>71</v>
       </c>
@@ -17628,64 +17641,64 @@
         <f>VLOOKUP(A67,[2]Лист1!$A:$G,7,0)</f>
         <v>365</v>
       </c>
-      <c r="I67" s="2">
+      <c r="J67" s="2">
         <f>VLOOKUP(A67,[3]TDSheet!$A:$E,4,0)</f>
         <v>57</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K67" s="2">
+      <c r="L67" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="N67" s="2">
+      <c r="O67" s="2">
         <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="O67" s="25">
+      <c r="P67" s="25">
         <f t="shared" si="14"/>
         <v>46.799999999999983</v>
       </c>
-      <c r="P67" s="25"/>
-      <c r="R67" s="2">
+      <c r="Q67" s="25"/>
+      <c r="S67" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S67" s="2">
+      <c r="T67" s="2">
         <f t="shared" si="6"/>
         <v>9.4117647058823533</v>
       </c>
-      <c r="T67" s="2">
+      <c r="U67" s="2">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$U,21,0)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="U67" s="2">
+      <c r="V67" s="2">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$V,22,0)</f>
         <v>9</v>
       </c>
-      <c r="V67" s="2">
+      <c r="W67" s="2">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$N,14,0)</f>
         <v>11.6</v>
       </c>
-      <c r="X67" s="2">
+      <c r="Y67" s="2">
         <f t="shared" si="11"/>
         <v>9.3599999999999977</v>
       </c>
-      <c r="Y67" s="23">
+      <c r="Z67" s="23">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z67" s="24">
+      <c r="AA67" s="24">
         <v>7</v>
       </c>
-      <c r="AA67" s="2">
+      <c r="AB67" s="2">
         <f t="shared" si="7"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>72</v>
       </c>
@@ -17712,68 +17725,68 @@
         <f>VLOOKUP(A68,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J68" s="2">
         <f>VLOOKUP(A68,[3]TDSheet!$A:$E,4,0)</f>
         <v>1462</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="L68" s="2">
+      <c r="M68" s="2">
         <f>VLOOKUP(A68,[4]TDSheet!$A:$V,6,0)</f>
         <v>1320</v>
       </c>
-      <c r="N68" s="2">
+      <c r="O68" s="2">
         <f t="shared" si="4"/>
         <v>25.4</v>
       </c>
-      <c r="O68" s="25">
+      <c r="P68" s="25">
         <f t="shared" si="14"/>
         <v>56.599999999999966</v>
       </c>
-      <c r="P68" s="25"/>
-      <c r="R68" s="2">
+      <c r="Q68" s="25"/>
+      <c r="S68" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S68" s="2">
+      <c r="T68" s="2">
         <f t="shared" si="6"/>
         <v>11.771653543307087</v>
       </c>
-      <c r="T68" s="2">
+      <c r="U68" s="2">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$U,21,0)</f>
         <v>26.4</v>
       </c>
-      <c r="U68" s="2">
+      <c r="V68" s="2">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$V,22,0)</f>
         <v>27.333333333333332</v>
       </c>
-      <c r="V68" s="2">
+      <c r="W68" s="2">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$N,14,0)</f>
         <v>33.6</v>
       </c>
-      <c r="X68" s="2">
+      <c r="Y68" s="2">
         <f t="shared" si="11"/>
         <v>14.149999999999991</v>
       </c>
-      <c r="Y68" s="23">
+      <c r="Z68" s="23">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z68" s="24">
+      <c r="AA68" s="24">
         <v>4</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AB68" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>73</v>
       </c>
@@ -17800,68 +17813,68 @@
         <f>VLOOKUP(A69,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J69" s="2">
         <f>VLOOKUP(A69,[3]TDSheet!$A:$E,4,0)</f>
         <v>1616</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L69" s="2">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M69" s="2">
         <f>VLOOKUP(A69,[4]TDSheet!$A:$V,6,0)</f>
         <v>1464</v>
       </c>
-      <c r="N69" s="2">
+      <c r="O69" s="2">
         <f t="shared" si="4"/>
         <v>30.4</v>
       </c>
-      <c r="O69" s="25">
+      <c r="P69" s="25">
         <f t="shared" si="14"/>
         <v>118.59999999999997</v>
       </c>
-      <c r="P69" s="25"/>
-      <c r="R69" s="2">
+      <c r="Q69" s="25"/>
+      <c r="S69" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="S69" s="2">
+      <c r="T69" s="2">
         <f t="shared" si="6"/>
         <v>10.098684210526317</v>
       </c>
-      <c r="T69" s="2">
+      <c r="U69" s="2">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$U,21,0)</f>
         <v>31</v>
       </c>
-      <c r="U69" s="2">
+      <c r="V69" s="2">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$V,22,0)</f>
         <v>30</v>
       </c>
-      <c r="V69" s="2">
+      <c r="W69" s="2">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$N,14,0)</f>
         <v>34.6</v>
       </c>
-      <c r="X69" s="2">
+      <c r="Y69" s="2">
         <f t="shared" si="11"/>
         <v>29.649999999999991</v>
       </c>
-      <c r="Y69" s="23">
+      <c r="Z69" s="23">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z69" s="24">
+      <c r="AA69" s="24">
         <v>10</v>
       </c>
-      <c r="AA69" s="2">
+      <c r="AB69" s="2">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>74</v>
       </c>
@@ -17888,64 +17901,64 @@
         <f>VLOOKUP(A70,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <f>VLOOKUP(A70,[3]TDSheet!$A:$E,4,0)</f>
         <v>106.9</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <f t="shared" si="2"/>
         <v>-25.900000000000006</v>
       </c>
-      <c r="K70" s="2">
+      <c r="L70" s="2">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="N70" s="2">
+      <c r="O70" s="2">
         <f t="shared" si="4"/>
         <v>16.2</v>
       </c>
-      <c r="O70" s="25">
-        <f>10*N70-F70</f>
+      <c r="P70" s="25">
+        <f>10*O70-F70</f>
         <v>148.5</v>
       </c>
-      <c r="P70" s="25"/>
-      <c r="R70" s="2">
+      <c r="Q70" s="25"/>
+      <c r="S70" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="S70" s="2">
+      <c r="T70" s="2">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T70" s="2">
+      <c r="U70" s="2">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$U,21,0)</f>
         <v>5.9399999999999995</v>
       </c>
-      <c r="U70" s="2">
+      <c r="V70" s="2">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$V,22,0)</f>
         <v>9</v>
       </c>
-      <c r="V70" s="2">
+      <c r="W70" s="2">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$N,14,0)</f>
         <v>4.32</v>
       </c>
-      <c r="X70" s="2">
+      <c r="Y70" s="2">
         <f t="shared" si="11"/>
         <v>148.5</v>
       </c>
-      <c r="Y70" s="23">
+      <c r="Z70" s="23">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$Y,25,0)</f>
         <v>2.7</v>
       </c>
-      <c r="Z70" s="24">
+      <c r="AA70" s="24">
         <v>55</v>
       </c>
-      <c r="AA70" s="2">
+      <c r="AB70" s="2">
         <f t="shared" si="7"/>
         <v>148.5</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>75</v>
       </c>
@@ -17972,62 +17985,62 @@
         <f>VLOOKUP(A71,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I71" s="2">
+      <c r="J71" s="2">
         <f>VLOOKUP(A71,[3]TDSheet!$A:$E,4,0)</f>
         <v>7.7</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" ref="J71:J72" si="15">E71-I71</f>
+      <c r="K71" s="2">
+        <f t="shared" ref="K71:K72" si="15">E71-J71</f>
         <v>-2.7</v>
       </c>
-      <c r="K71" s="2">
-        <f t="shared" ref="K71:K72" si="16">E71-L71</f>
+      <c r="L71" s="2">
+        <f t="shared" ref="L71:L72" si="16">E71-M71</f>
         <v>5</v>
       </c>
-      <c r="N71" s="2">
-        <f t="shared" ref="N71:N72" si="17">K71/5</f>
+      <c r="O71" s="2">
+        <f t="shared" ref="O71:O72" si="17">L71/5</f>
         <v>1</v>
       </c>
-      <c r="O71" s="25"/>
       <c r="P71" s="25"/>
-      <c r="R71" s="2">
-        <f t="shared" ref="R71:R72" si="18">(F71+O71)/N71</f>
+      <c r="Q71" s="25"/>
+      <c r="S71" s="2">
+        <f t="shared" ref="S71:S72" si="18">(F71+P71)/O71</f>
         <v>400</v>
       </c>
-      <c r="S71" s="2">
-        <f t="shared" ref="S71:S72" si="19">F71/N71</f>
+      <c r="T71" s="2">
+        <f t="shared" ref="T71:T72" si="19">F71/O71</f>
         <v>400</v>
       </c>
-      <c r="T71" s="2">
+      <c r="U71" s="2">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$U,21,0)</f>
         <v>47.54</v>
       </c>
-      <c r="U71" s="2">
+      <c r="V71" s="2">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$V,22,0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="V71" s="2">
+      <c r="W71" s="2">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$N,14,0)</f>
         <v>37.08</v>
       </c>
-      <c r="X71" s="2">
+      <c r="Y71" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y71" s="23">
+      <c r="Z71" s="23">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
-      <c r="Z71" s="24">
-        <f t="shared" ref="Z71:Z72" si="20">O71/Y71</f>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="2">
-        <f t="shared" ref="AA71:AA72" si="21">Z71*Y71*G71</f>
+      <c r="AA71" s="24">
+        <f t="shared" ref="AA71" si="20">P71/Z71</f>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2">
+        <f t="shared" ref="AB71:AB72" si="21">AA71*Z71*G71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>76</v>
       </c>
@@ -18052,65 +18065,65 @@
         <f>VLOOKUP(A72,[2]Лист1!$A:$G,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I72" s="2">
+      <c r="J72" s="2">
         <f>VLOOKUP(A72,[3]TDSheet!$A:$E,4,0)</f>
         <v>129</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="K72" s="2">
+      <c r="L72" s="2">
         <f t="shared" si="16"/>
         <v>137</v>
       </c>
-      <c r="N72" s="2">
+      <c r="O72" s="2">
         <f t="shared" si="17"/>
         <v>27.4</v>
       </c>
-      <c r="O72" s="25">
-        <f>13*N72-F72</f>
+      <c r="P72" s="25">
+        <f>13*O72-F72</f>
         <v>251.2</v>
       </c>
-      <c r="P72" s="25"/>
-      <c r="R72" s="2">
+      <c r="Q72" s="25"/>
+      <c r="S72" s="2">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="S72" s="2">
+      <c r="T72" s="2">
         <f t="shared" si="19"/>
         <v>3.832116788321168</v>
       </c>
-      <c r="T72" s="2">
+      <c r="U72" s="2">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$U,21,0)</f>
         <v>18.2</v>
       </c>
-      <c r="U72" s="2">
+      <c r="V72" s="2">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$V,22,0)</f>
         <v>17</v>
       </c>
-      <c r="V72" s="2">
+      <c r="W72" s="2">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$N,14,0)</f>
         <v>17</v>
       </c>
-      <c r="X72" s="2">
+      <c r="Y72" s="2">
         <f t="shared" si="11"/>
         <v>35.167999999999999</v>
       </c>
-      <c r="Y72" s="23">
+      <c r="Z72" s="23">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$Y,25,0)</f>
         <v>22</v>
       </c>
-      <c r="Z72" s="24">
+      <c r="AA72" s="24">
         <v>11</v>
       </c>
-      <c r="AA72" s="2">
+      <c r="AB72" s="2">
         <f t="shared" si="21"/>
         <v>33.880000000000003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA72" xr:uid="{3EDAFC2F-1A55-4931-8894-C4CBBB0180EB}"/>
+  <autoFilter ref="A3:AB72" xr:uid="{3EDAFC2F-1A55-4931-8894-C4CBBB0180EB}"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
